--- a/Master-functional-testcases/partner-management/TC_PartnerManagement_Master.xlsx
+++ b/Master-functional-testcases/partner-management/TC_PartnerManagement_Master.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jane.rose\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="343">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -996,6 +996,63 @@
   </si>
   <si>
     <t>Pagination must be displayed for the filter results</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Verify new partner with new policy request for api key</t>
+  </si>
+  <si>
+    <t>It should be manual approval</t>
+  </si>
+  <si>
+    <t>Verify same partner with same policy request for api key for subsequent times</t>
+  </si>
+  <si>
+    <t>it should be auto approval</t>
+  </si>
+  <si>
+    <t>Verify same partner with different policy request for api key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify same partner with same policy  request for api key but policy deactivated </t>
+  </si>
+  <si>
+    <t>It should not get auto approval</t>
+  </si>
+  <si>
+    <t>Verify same partner with same policy  request for api key   but partner  deactivated</t>
+  </si>
+  <si>
+    <t>Verify same partner with same policy request for api key for subsequent times and try to do manual approval</t>
+  </si>
+  <si>
+    <t>it should get already approved</t>
+  </si>
+  <si>
+    <t>Verify auto approval if previous api key's is deactive</t>
+  </si>
+  <si>
+    <t>PM_Approval_01</t>
+  </si>
+  <si>
+    <t>PM_Approval_02</t>
+  </si>
+  <si>
+    <t>PM_Approval_03</t>
+  </si>
+  <si>
+    <t>PM_Approval_04</t>
+  </si>
+  <si>
+    <t>PM_Approval_05</t>
+  </si>
+  <si>
+    <t>PM_Approval_06</t>
+  </si>
+  <si>
+    <t>PM_Approval_07</t>
   </si>
 </sst>
 </file>
@@ -1348,15 +1405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="56" customWidth="1"/>
@@ -3510,9 +3568,149 @@
         <v>323</v>
       </c>
     </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F106" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F108" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" t="s">
+        <v>324</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F109" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F110" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B82 B105:B272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B82 B112:B272">
       <formula1>"Admin, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D37 D47:D272">
@@ -3521,7 +3719,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G272">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B111">
       <formula1>"Admin, Credential Services, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Master-functional-testcases/partner-management/TC_PartnerManagement_Master.xlsx
+++ b/Master-functional-testcases/partner-management/TC_PartnerManagement_Master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="466">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -1053,13 +1053,382 @@
   </si>
   <si>
     <t>PM_Approval_07</t>
+  </si>
+  <si>
+    <t>PM_Audit_01</t>
+  </si>
+  <si>
+    <t>Policy Audit</t>
+  </si>
+  <si>
+    <t>Verify Create policy group as entry in audit_log</t>
+  </si>
+  <si>
+    <t>Entry should be in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_02</t>
+  </si>
+  <si>
+    <t>Verify Create policy group as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_03</t>
+  </si>
+  <si>
+    <t>Verify define Auth policy as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_04</t>
+  </si>
+  <si>
+    <t>Verify define Auth policy as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_05</t>
+  </si>
+  <si>
+    <t>Verify publish policy as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_06</t>
+  </si>
+  <si>
+    <t>Verify publish policy as entry in audit_log by giving wrong id</t>
+  </si>
+  <si>
+    <t>PM_Audit_07</t>
+  </si>
+  <si>
+    <t>Partner Audit</t>
+  </si>
+  <si>
+    <t>Verify partner self registration as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_08</t>
+  </si>
+  <si>
+    <t>Verify partner self registration as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_09</t>
+  </si>
+  <si>
+    <t>Verify sumit partnerapikey as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_10</t>
+  </si>
+  <si>
+    <t>Verify sumit partnerapikey as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_11</t>
+  </si>
+  <si>
+    <t>Partner Manager Audit</t>
+  </si>
+  <si>
+    <t>Verify approve partnerapikey as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_12</t>
+  </si>
+  <si>
+    <t>Verify approve partnerapikey as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_13</t>
+  </si>
+  <si>
+    <t>Verify get partnerapi key as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_14</t>
+  </si>
+  <si>
+    <t>Verify get partnerapi key as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_15</t>
+  </si>
+  <si>
+    <t>Verify get partnerapi key as entry in audit_log b</t>
+  </si>
+  <si>
+    <t>PM_Audit_16</t>
+  </si>
+  <si>
+    <t>Verify get partner certificate as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_17</t>
+  </si>
+  <si>
+    <t>Verify upload partner certificate as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_18</t>
+  </si>
+  <si>
+    <t>Verify upload partner certificate as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_19</t>
+  </si>
+  <si>
+    <t>Verify update policy as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_20</t>
+  </si>
+  <si>
+    <t>Verify update policy as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_21</t>
+  </si>
+  <si>
+    <t>Verify getpolicyas entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_22</t>
+  </si>
+  <si>
+    <t>Verify getpolicy as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_23</t>
+  </si>
+  <si>
+    <t>Verify getpolicy by api as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_24</t>
+  </si>
+  <si>
+    <t>Verify getpolicy by api as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_25</t>
+  </si>
+  <si>
+    <t>Verify active/deative policy as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_26</t>
+  </si>
+  <si>
+    <t>Verify active/deative policyas entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_27</t>
+  </si>
+  <si>
+    <t>Verify active/deative partner as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_28</t>
+  </si>
+  <si>
+    <t>Partner manager Audit</t>
+  </si>
+  <si>
+    <t>Verify active/deative partner as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_29</t>
+  </si>
+  <si>
+    <t>Verify get partner details as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_30</t>
+  </si>
+  <si>
+    <t>Verify get partner details as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_31</t>
+  </si>
+  <si>
+    <t>Device Provider Audit</t>
+  </si>
+  <si>
+    <t>Verify add device detail as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_32</t>
+  </si>
+  <si>
+    <t>Verify add device detail as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_33</t>
+  </si>
+  <si>
+    <t>Verify approve/reject device detail as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_34</t>
+  </si>
+  <si>
+    <t>Verify approve/reject device detail as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_35</t>
+  </si>
+  <si>
+    <t>Verify create SBI as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_36</t>
+  </si>
+  <si>
+    <t>Verify create SBI as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_37</t>
+  </si>
+  <si>
+    <t>Verify approve/reject SBIas entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_38</t>
+  </si>
+  <si>
+    <t>Verify approve/reject SBI as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_39</t>
+  </si>
+  <si>
+    <t>Verify register devicer as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_40</t>
+  </si>
+  <si>
+    <t>Verify register device as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_41</t>
+  </si>
+  <si>
+    <t>Verify validatedeviceprovider as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_42</t>
+  </si>
+  <si>
+    <t>Verify validatedeviceprovider as entry in audit_log by giving wrong data</t>
+  </si>
+  <si>
+    <t>PM_Audit_43</t>
+  </si>
+  <si>
+    <t>MISP Audit</t>
+  </si>
+  <si>
+    <t>Verify generateLicense key as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_44</t>
+  </si>
+  <si>
+    <t>Verify generateLicense key as entry in audit_log by giving invalid data</t>
+  </si>
+  <si>
+    <t>PM_Audit_45</t>
+  </si>
+  <si>
+    <t>Verify regenerate license key as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_46</t>
+  </si>
+  <si>
+    <t>Verify regenerate license key as entry in audit_log by invalid data</t>
+  </si>
+  <si>
+    <t>PM_Audit_47</t>
+  </si>
+  <si>
+    <t>Verify update license key as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_48</t>
+  </si>
+  <si>
+    <t>Verify update license key as entry in audit_log by giving invalid data</t>
+  </si>
+  <si>
+    <t>PM_Audit_49</t>
+  </si>
+  <si>
+    <t>Verify get license details  as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_50</t>
+  </si>
+  <si>
+    <t>Verify get license details  as entry in audit_log by giving invalid data</t>
+  </si>
+  <si>
+    <t>PM_Audit_51</t>
+  </si>
+  <si>
+    <t>Verify Uploaded CA certificate as entry in audit _log</t>
+  </si>
+  <si>
+    <t>PM_Audit_52</t>
+  </si>
+  <si>
+    <t>Verify add contact as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_53</t>
+  </si>
+  <si>
+    <t>Verify getpartners as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_54</t>
+  </si>
+  <si>
+    <t>Verify getpolicies as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_55</t>
+  </si>
+  <si>
+    <t>Verify getpolicy as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_56</t>
+  </si>
+  <si>
+    <t>Verify getpartnerspolicy as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_57</t>
+  </si>
+  <si>
+    <t>Verify getpolicygroup by policy group id as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Audit_58</t>
+  </si>
+  <si>
+    <t>Verify getpolicygroup  as entry in audit_log</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,6 +1443,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1117,13 +1492,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1405,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3706,6 +4097,1166 @@
       </c>
       <c r="F111" s="1" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/Master-functional-testcases/partner-management/TC_PartnerManagement_Master.xlsx
+++ b/Master-functional-testcases/partner-management/TC_PartnerManagement_Master.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="487">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -794,9 +794,6 @@
     <t>Partner Admin  should be able to re-issue a MISP license key</t>
   </si>
   <si>
-    <t>IDA_PM_01</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -806,72 +803,39 @@
     <t>The searched policy should be returned</t>
   </si>
   <si>
-    <t>IDA_PM_02</t>
-  </si>
-  <si>
     <t>Verify admin is able to search for a specific policygroup</t>
   </si>
   <si>
     <t>The searched policygroup should be returned</t>
   </si>
   <si>
-    <t>IDA_PM_03</t>
-  </si>
-  <si>
     <t>Verify admin is able to search for a specific device type</t>
   </si>
   <si>
-    <t>The searched devicetype should be returned</t>
-  </si>
-  <si>
-    <t>IDA_PM_04</t>
-  </si>
-  <si>
     <t>Verify admin is able to search for a specific device</t>
   </si>
   <si>
-    <t>The searched device should be returned</t>
-  </si>
-  <si>
-    <t>IDA_PM_05</t>
-  </si>
-  <si>
     <t>Verify admin is able to search for a specific registered device</t>
   </si>
   <si>
-    <t>The searched registered device should be returned</t>
-  </si>
-  <si>
-    <t>IDA_PM_06</t>
-  </si>
-  <si>
     <t>Verify admin is able to search for a Secure Biometric Interface</t>
   </si>
   <si>
     <t>The searched Secure Biometric Interface should be returned</t>
   </si>
   <si>
-    <t>IDA_PM_07</t>
-  </si>
-  <si>
     <t>Verify admin is able to search for a Partner</t>
   </si>
   <si>
     <t>The searched partner should be returned</t>
   </si>
   <si>
-    <t>IDA_PM_08</t>
-  </si>
-  <si>
     <t>Verify admin is able to search for a partner type</t>
   </si>
   <si>
     <t>The searched partner type should be returned</t>
   </si>
   <si>
-    <t>IDA_PM_09</t>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -881,117 +845,78 @@
     <t>The results should be filtered on the policy</t>
   </si>
   <si>
-    <t>IDA_PM_10</t>
-  </si>
-  <si>
     <t>Verify admin is able to filter based on policygroup</t>
   </si>
   <si>
     <t>The results should be filtered on the policygroup</t>
   </si>
   <si>
-    <t>IDA_PM_11</t>
-  </si>
-  <si>
     <t>Verify admin is able to filter based on device type</t>
   </si>
   <si>
     <t>The results should be filtered on the devicetype</t>
   </si>
   <si>
-    <t>IDA_PM_12</t>
-  </si>
-  <si>
     <t>Verify admin is able to filter based on device</t>
   </si>
   <si>
     <t>The results should be filtered on the device</t>
   </si>
   <si>
-    <t>IDA_PM_13</t>
-  </si>
-  <si>
     <t>Verify admin is able to filter based on registered device</t>
   </si>
   <si>
     <t>The results should be filtered on the registered device</t>
   </si>
   <si>
-    <t>IDA_PM_14</t>
-  </si>
-  <si>
     <t>Verify admin is able to filter based on Secure Biometric Interface</t>
   </si>
   <si>
     <t>The results should be filtered on Secure Biometric Interface</t>
   </si>
   <si>
-    <t>IDA_PM_15</t>
-  </si>
-  <si>
     <t>Verify admin is able to filter based on Partner</t>
   </si>
   <si>
     <t>The results should be filtered on the partner</t>
   </si>
   <si>
-    <t>IDA_PM_16</t>
-  </si>
-  <si>
     <t>Verify admin is able to filter based on partner type</t>
   </si>
   <si>
     <t>The results should be filtered on the partnertype</t>
   </si>
   <si>
-    <t>IDA_PM_17</t>
-  </si>
-  <si>
     <t>Verify admin is able to search/filter based on multiple fields</t>
   </si>
   <si>
     <t>The results should be filtered on chosen fields</t>
   </si>
   <si>
-    <t>IDA_PM_18</t>
-  </si>
-  <si>
     <t>Verify the different type of filters :  Exact Search, in Between search, contains search, Starts with Search</t>
   </si>
   <si>
     <t>Search/Filter should work as expected</t>
   </si>
   <si>
-    <t>IDA_PM_19</t>
-  </si>
-  <si>
     <t>Verify default sort is done on date</t>
   </si>
   <si>
     <t>Default sort should be done on date</t>
   </si>
   <si>
-    <t>IDA_PM_20</t>
-  </si>
-  <si>
     <t>Verify default sort type is ascending</t>
   </si>
   <si>
     <t>Default sort type should be in ascending order</t>
   </si>
   <si>
-    <t>IDA_PM_21</t>
-  </si>
-  <si>
     <t>Verify pagination is defaulted to 10 rows</t>
   </si>
   <si>
     <t>Pagination should be defaulted to 10 rows per page</t>
   </si>
   <si>
-    <t>IDA_PM_22</t>
-  </si>
-  <si>
     <t>Verify pagination works as expected (verify from and to pages)</t>
   </si>
   <si>
@@ -1422,13 +1347,151 @@
   </si>
   <si>
     <t>Verify getpolicygroup  as entry in audit_log</t>
+  </si>
+  <si>
+    <t>PM_Search_01</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PM_Search_02</t>
+  </si>
+  <si>
+    <t>PM_Search_03</t>
+  </si>
+  <si>
+    <t>PM_Search_04</t>
+  </si>
+  <si>
+    <t>PM_Search_05</t>
+  </si>
+  <si>
+    <t>PM_Search_06</t>
+  </si>
+  <si>
+    <t>PM_Search_07</t>
+  </si>
+  <si>
+    <t>PM_Search_08</t>
+  </si>
+  <si>
+    <t>PM_Search_09</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search based on multiple fields</t>
+  </si>
+  <si>
+    <t>The results should be search on chosen fields</t>
+  </si>
+  <si>
+    <t>PM_Search_10</t>
+  </si>
+  <si>
+    <t>Verify the different type of filters : Exact Search, in Between search, contains search, Starts with Search</t>
+  </si>
+  <si>
+    <t>Search should work as expected</t>
+  </si>
+  <si>
+    <t>PM_Search_11</t>
+  </si>
+  <si>
+    <t>PM_Search_12</t>
+  </si>
+  <si>
+    <t>PM_Search_13</t>
+  </si>
+  <si>
+    <t>PM_Search_14</t>
+  </si>
+  <si>
+    <t>Pagination must be displayed for the search results</t>
+  </si>
+  <si>
+    <t>PM_Search_15</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search only using Filter Criteria</t>
+  </si>
+  <si>
+    <t>It should be able search using only Filter</t>
+  </si>
+  <si>
+    <t>PM_Search_16</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search only using Sort Criteria</t>
+  </si>
+  <si>
+    <t>It should be able search using only sort</t>
+  </si>
+  <si>
+    <t>PM_Search_17</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search only using Pagination Criteria</t>
+  </si>
+  <si>
+    <t>It should be able search using only Pagination</t>
+  </si>
+  <si>
+    <t>PM_Search_18</t>
+  </si>
+  <si>
+    <t>Verify admin is able to search on different language</t>
+  </si>
+  <si>
+    <t>Admin should be able to search on different language</t>
+  </si>
+  <si>
+    <t>PM_Filter_01</t>
+  </si>
+  <si>
+    <t>PM_Filter_02</t>
+  </si>
+  <si>
+    <t>PM_Filter_03</t>
+  </si>
+  <si>
+    <t>PM_Filter_04</t>
+  </si>
+  <si>
+    <t>PM_Filter_05</t>
+  </si>
+  <si>
+    <t>PM_Filter_06</t>
+  </si>
+  <si>
+    <t>PM_Filter_07</t>
+  </si>
+  <si>
+    <t>PM_Filter_08</t>
+  </si>
+  <si>
+    <t>PM_Filter_09</t>
+  </si>
+  <si>
+    <t>PM_Filter_10</t>
+  </si>
+  <si>
+    <t>PM_Filter_11</t>
+  </si>
+  <si>
+    <t>PM_Filter_12</t>
+  </si>
+  <si>
+    <t>PM_Filter_13</t>
+  </si>
+  <si>
+    <t>PM_Filter_14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1448,6 +1511,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1492,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1515,6 +1584,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1796,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3479,7 +3557,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>250</v>
       </c>
@@ -3499,7 +3577,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>253</v>
       </c>
@@ -3519,1758 +3597,2568 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" t="s">
         <v>256</v>
       </c>
-      <c r="B83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>443</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="F84" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" t="s">
-        <v>257</v>
-      </c>
-      <c r="D84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="G84" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>444</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F85" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G85" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>445</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="F86" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G86" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>446</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" t="s">
-        <v>257</v>
-      </c>
-      <c r="D85" t="s">
-        <v>55</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="F87" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G87" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>447</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F88" s="10" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="G88" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>448</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" t="s">
-        <v>257</v>
-      </c>
-      <c r="D86" t="s">
-        <v>55</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="F89" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>449</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="10" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="F90" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" t="s">
-        <v>257</v>
-      </c>
-      <c r="D87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="G90" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>450</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G91" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>453</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G92" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>456</v>
+      </c>
+      <c r="B93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G93" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G94" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>458</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>256</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G95" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>459</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G96" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>461</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="G97" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>464</v>
+      </c>
+      <c r="B98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G98" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>467</v>
+      </c>
+      <c r="B99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G99" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>470</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="G100" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>473</v>
+      </c>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" t="s">
         <v>270</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="D101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="F101" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B88" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" t="s">
-        <v>257</v>
-      </c>
-      <c r="D88" t="s">
-        <v>55</v>
-      </c>
-      <c r="E88" s="1" t="s">
+    </row>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>474</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>475</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" t="s">
+        <v>270</v>
+      </c>
+      <c r="D103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B89" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" t="s">
-        <v>257</v>
-      </c>
-      <c r="D89" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F89" s="1" t="s">
+    </row>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>476</v>
+      </c>
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" t="s">
+        <v>270</v>
+      </c>
+      <c r="D104" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="F104" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" t="s">
-        <v>257</v>
-      </c>
-      <c r="D90" t="s">
-        <v>55</v>
-      </c>
-      <c r="E90" s="1" t="s">
+    </row>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>477</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>478</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B91" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="F106" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D91" t="s">
-        <v>55</v>
-      </c>
-      <c r="E91" s="1" t="s">
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>479</v>
+      </c>
+      <c r="B107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>480</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B92" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F92" s="1" t="s">
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>481</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" t="s">
+        <v>270</v>
+      </c>
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="F109" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B93" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" s="1" t="s">
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>482</v>
+      </c>
+      <c r="B110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>483</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>270</v>
+      </c>
+      <c r="D111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B94" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F94" s="1" t="s">
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>484</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="F112" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B95" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" t="s">
-        <v>55</v>
-      </c>
-      <c r="E95" s="1" t="s">
+    </row>
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>485</v>
+      </c>
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" t="s">
+        <v>270</v>
+      </c>
+      <c r="D113" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>486</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>270</v>
+      </c>
+      <c r="D114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" t="s">
-        <v>282</v>
-      </c>
-      <c r="D96" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F96" s="1" t="s">
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="D115" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B97" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" t="s">
-        <v>282</v>
-      </c>
-      <c r="D97" t="s">
-        <v>55</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="F115" t="s">
         <v>301</v>
       </c>
-      <c r="F97" s="1" t="s">
+    </row>
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="F116" t="s">
         <v>303</v>
       </c>
-      <c r="B98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" t="s">
-        <v>282</v>
-      </c>
-      <c r="D98" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="1" t="s">
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" t="s">
+        <v>299</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F117" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" t="s">
+        <v>299</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="F118" t="s">
         <v>306</v>
       </c>
-      <c r="B99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" t="s">
-        <v>282</v>
-      </c>
-      <c r="D99" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99" s="1" t="s">
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" t="s">
+        <v>299</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F119" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="F120" t="s">
         <v>309</v>
       </c>
-      <c r="B100" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" t="s">
-        <v>282</v>
-      </c>
-      <c r="D100" t="s">
-        <v>55</v>
-      </c>
-      <c r="E100" s="1" t="s">
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" t="s">
+        <v>299</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>312</v>
-      </c>
-      <c r="B101" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" t="s">
-        <v>282</v>
-      </c>
-      <c r="D101" t="s">
-        <v>55</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>315</v>
-      </c>
-      <c r="B102" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" t="s">
-        <v>282</v>
-      </c>
-      <c r="D102" t="s">
-        <v>55</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>318</v>
-      </c>
-      <c r="B103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" t="s">
-        <v>282</v>
-      </c>
-      <c r="D103" t="s">
-        <v>55</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>321</v>
-      </c>
-      <c r="B104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C104" t="s">
-        <v>282</v>
-      </c>
-      <c r="D104" t="s">
-        <v>55</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B105" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" t="s">
-        <v>324</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F105" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B106" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" t="s">
-        <v>324</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F106" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B107" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" t="s">
-        <v>324</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F107" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B108" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F108" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B109" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" t="s">
-        <v>324</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F109" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B110" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F110" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" t="s">
-        <v>324</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>346</v>
+      <c r="F121" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>368</v>
+      <c r="E122" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>370</v>
+      <c r="E123" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>372</v>
+      <c r="E124" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>434</v>
+      <c r="C154" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>434</v>
+      <c r="C155" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>434</v>
+      <c r="C156" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>434</v>
+      <c r="C157" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>434</v>
+      <c r="C158" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>434</v>
+      <c r="C159" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>434</v>
+      <c r="C160" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>447</v>
+      <c r="E160" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>434</v>
+      <c r="C161" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E161" s="8" t="s">
-        <v>449</v>
+      <c r="E161" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>358</v>
+      <c r="C162" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E162" s="8" t="s">
-        <v>451</v>
+      <c r="E162" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>358</v>
+      <c r="C163" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E163" s="8" t="s">
-        <v>453</v>
+      <c r="E163" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E164" s="8" t="s">
-        <v>455</v>
+      <c r="E164" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E165" s="8" t="s">
-        <v>457</v>
+      <c r="E165" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E166" s="8" t="s">
-        <v>459</v>
+      <c r="E166" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="8" t="s">
-        <v>461</v>
+      <c r="E167" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E168" s="8" t="s">
-        <v>463</v>
+      <c r="E168" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="8" t="s">
-        <v>465</v>
+      <c r="E169" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>346</v>
-      </c>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="4"/>
+    </row>
+    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="4"/>
+    </row>
+    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="4"/>
+    </row>
+    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="4"/>
+    </row>
+    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="4"/>
+    </row>
+    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="4"/>
+    </row>
+    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="4"/>
+    </row>
+    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="4"/>
+    </row>
+    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="4"/>
+    </row>
+    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="4"/>
+    </row>
+    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="4"/>
+    </row>
+    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="8"/>
+      <c r="F278" s="4"/>
+    </row>
+    <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="4"/>
+    </row>
+    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="7"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="4"/>
+    </row>
+    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="4"/>
+    </row>
+    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B82 B112:B272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B82 B226:B283 B122:B204">
       <formula1>"Admin, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D37 D47:D272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D37 D47:D283">
       <formula1>"Acceptance, Functional, Smoke, Security, Performance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G272">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G283">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B205:B225 B83:B121">
       <formula1>"Admin, Credential Services, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Master-functional-testcases/partner-management/TC_PartnerManagement_Master.xlsx
+++ b/Master-functional-testcases/partner-management/TC_PartnerManagement_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="491">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -1485,6 +1485,18 @@
   </si>
   <si>
     <t>PM_Filter_14</t>
+  </si>
+  <si>
+    <t>MOSIP-8718</t>
+  </si>
+  <si>
+    <t>MOSIP-11389</t>
+  </si>
+  <si>
+    <t>MOSIP-11523</t>
+  </si>
+  <si>
+    <t>Story id</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1594,6 +1606,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1874,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1889,9 +1902,10 @@
     <col min="5" max="5" width="56" customWidth="1"/>
     <col min="6" max="6" width="51.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1913,8 +1927,11 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1937,7 +1954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1960,7 +1977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1983,7 +2000,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2006,7 +2023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2029,7 +2046,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2052,7 +2069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2075,7 +2092,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2098,7 +2115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2121,7 +2138,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2144,7 +2161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2190,7 +2207,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2213,7 +2230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -2236,7 +2253,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -3557,7 +3574,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>250</v>
       </c>
@@ -3577,7 +3594,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>253</v>
       </c>
@@ -3597,7 +3614,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>441</v>
       </c>
@@ -3619,8 +3636,11 @@
       <c r="G83" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>443</v>
       </c>
@@ -3642,8 +3662,11 @@
       <c r="G84" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>444</v>
       </c>
@@ -3665,8 +3688,11 @@
       <c r="G85" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>445</v>
       </c>
@@ -3688,8 +3714,11 @@
       <c r="G86" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>446</v>
       </c>
@@ -3711,8 +3740,11 @@
       <c r="G87" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>447</v>
       </c>
@@ -3734,8 +3766,11 @@
       <c r="G88" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>448</v>
       </c>
@@ -3757,8 +3792,11 @@
       <c r="G89" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>449</v>
       </c>
@@ -3780,8 +3818,11 @@
       <c r="G90" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>450</v>
       </c>
@@ -3803,8 +3844,11 @@
       <c r="G91" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>453</v>
       </c>
@@ -3826,8 +3870,11 @@
       <c r="G92" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>456</v>
       </c>
@@ -3849,8 +3896,11 @@
       <c r="G93" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>457</v>
       </c>
@@ -3872,8 +3922,11 @@
       <c r="G94" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>458</v>
       </c>
@@ -3895,8 +3948,11 @@
       <c r="G95" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>459</v>
       </c>
@@ -3918,8 +3974,11 @@
       <c r="G96" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>461</v>
       </c>
@@ -3941,8 +4000,11 @@
       <c r="G97" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>464</v>
       </c>
@@ -3964,8 +4026,11 @@
       <c r="G98" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>467</v>
       </c>
@@ -3987,8 +4052,11 @@
       <c r="G99" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>470</v>
       </c>
@@ -4010,8 +4078,11 @@
       <c r="G100" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>473</v>
       </c>
@@ -4031,7 +4102,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>474</v>
       </c>
@@ -4051,7 +4122,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>475</v>
       </c>
@@ -4071,7 +4142,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>476</v>
       </c>
@@ -4091,7 +4162,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>477</v>
       </c>
@@ -4111,7 +4182,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>478</v>
       </c>
@@ -4131,7 +4202,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>479</v>
       </c>
@@ -4151,7 +4222,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>480</v>
       </c>
@@ -4171,7 +4242,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>481</v>
       </c>
@@ -4191,7 +4262,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>482</v>
       </c>
@@ -4211,7 +4282,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>483</v>
       </c>
@@ -4231,7 +4302,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>484</v>
       </c>
@@ -4251,7 +4322,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>485</v>
       </c>
@@ -4271,7 +4342,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>486</v>
       </c>
@@ -4291,7 +4362,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>311</v>
       </c>
@@ -4310,8 +4381,11 @@
       <c r="F115" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>312</v>
       </c>
@@ -4330,8 +4404,11 @@
       <c r="F116" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>313</v>
       </c>
@@ -4350,8 +4427,11 @@
       <c r="F117" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>314</v>
       </c>
@@ -4370,8 +4450,11 @@
       <c r="F118" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>315</v>
       </c>
@@ -4390,8 +4473,11 @@
       <c r="F119" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>316</v>
       </c>
@@ -4410,8 +4496,11 @@
       <c r="F120" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>317</v>
       </c>
@@ -4430,8 +4519,11 @@
       <c r="F121" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>318</v>
       </c>
@@ -4450,8 +4542,11 @@
       <c r="F122" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>322</v>
       </c>
@@ -4470,8 +4565,11 @@
       <c r="F123" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>324</v>
       </c>
@@ -4490,8 +4588,11 @@
       <c r="F124" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>326</v>
       </c>
@@ -4510,8 +4611,11 @@
       <c r="F125" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>328</v>
       </c>
@@ -4530,8 +4634,11 @@
       <c r="F126" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>330</v>
       </c>
@@ -4550,8 +4657,11 @@
       <c r="F127" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>332</v>
       </c>
@@ -4570,8 +4680,11 @@
       <c r="F128" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>335</v>
       </c>
@@ -4590,8 +4703,11 @@
       <c r="F129" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>337</v>
       </c>
@@ -4610,8 +4726,11 @@
       <c r="F130" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>339</v>
       </c>
@@ -4630,8 +4749,11 @@
       <c r="F131" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>341</v>
       </c>
@@ -4650,8 +4772,11 @@
       <c r="F132" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>344</v>
       </c>
@@ -4670,8 +4795,11 @@
       <c r="F133" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>346</v>
       </c>
@@ -4690,8 +4818,11 @@
       <c r="F134" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>348</v>
       </c>
@@ -4710,8 +4841,11 @@
       <c r="F135" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>350</v>
       </c>
@@ -4730,8 +4864,11 @@
       <c r="F136" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>352</v>
       </c>
@@ -4750,8 +4887,11 @@
       <c r="F137" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>354</v>
       </c>
@@ -4770,8 +4910,11 @@
       <c r="F138" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>356</v>
       </c>
@@ -4790,8 +4933,11 @@
       <c r="F139" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>358</v>
       </c>
@@ -4810,8 +4956,11 @@
       <c r="F140" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>360</v>
       </c>
@@ -4830,8 +4979,11 @@
       <c r="F141" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>362</v>
       </c>
@@ -4850,8 +5002,11 @@
       <c r="F142" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>364</v>
       </c>
@@ -4870,8 +5025,11 @@
       <c r="F143" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>366</v>
       </c>
@@ -4890,8 +5048,11 @@
       <c r="F144" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>368</v>
       </c>
@@ -4910,8 +5071,11 @@
       <c r="F145" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>370</v>
       </c>
@@ -4930,8 +5094,11 @@
       <c r="F146" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>372</v>
       </c>
@@ -4950,8 +5117,11 @@
       <c r="F147" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>374</v>
       </c>
@@ -4970,8 +5140,11 @@
       <c r="F148" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>376</v>
       </c>
@@ -4990,8 +5163,11 @@
       <c r="F149" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>379</v>
       </c>
@@ -5010,8 +5186,11 @@
       <c r="F150" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>381</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="F151" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>383</v>
       </c>
@@ -5050,8 +5232,11 @@
       <c r="F152" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>386</v>
       </c>
@@ -5070,8 +5255,11 @@
       <c r="F153" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>388</v>
       </c>
@@ -5090,8 +5278,11 @@
       <c r="F154" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>390</v>
       </c>
@@ -5110,8 +5301,11 @@
       <c r="F155" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>392</v>
       </c>
@@ -5130,8 +5324,11 @@
       <c r="F156" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>394</v>
       </c>
@@ -5150,8 +5347,11 @@
       <c r="F157" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>396</v>
       </c>
@@ -5170,8 +5370,11 @@
       <c r="F158" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>398</v>
       </c>
@@ -5190,8 +5393,11 @@
       <c r="F159" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>400</v>
       </c>
@@ -5210,8 +5416,11 @@
       <c r="F160" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>402</v>
       </c>
@@ -5230,8 +5439,11 @@
       <c r="F161" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>404</v>
       </c>
@@ -5250,8 +5462,11 @@
       <c r="F162" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>406</v>
       </c>
@@ -5270,8 +5485,11 @@
       <c r="F163" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>408</v>
       </c>
@@ -5290,8 +5508,11 @@
       <c r="F164" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>411</v>
       </c>
@@ -5310,8 +5531,11 @@
       <c r="F165" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>413</v>
       </c>
@@ -5330,8 +5554,11 @@
       <c r="F166" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>415</v>
       </c>
@@ -5350,8 +5577,11 @@
       <c r="F167" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H167" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>417</v>
       </c>
@@ -5370,8 +5600,11 @@
       <c r="F168" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>419</v>
       </c>
@@ -5390,8 +5623,11 @@
       <c r="F169" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>421</v>
       </c>
@@ -5410,8 +5646,11 @@
       <c r="F170" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>423</v>
       </c>
@@ -5430,8 +5669,11 @@
       <c r="F171" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>425</v>
       </c>
@@ -5450,8 +5692,11 @@
       <c r="F172" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>427</v>
       </c>
@@ -5470,8 +5715,11 @@
       <c r="F173" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>429</v>
       </c>
@@ -5490,8 +5738,11 @@
       <c r="F174" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>431</v>
       </c>
@@ -5510,8 +5761,11 @@
       <c r="F175" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>433</v>
       </c>
@@ -5530,8 +5784,11 @@
       <c r="F176" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>435</v>
       </c>
@@ -5550,8 +5807,11 @@
       <c r="F177" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>437</v>
       </c>
@@ -5570,8 +5830,11 @@
       <c r="F178" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>439</v>
       </c>
@@ -5589,6 +5852,9 @@
       </c>
       <c r="F179" s="4" t="s">
         <v>321</v>
+      </c>
+      <c r="H179" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
